--- a/ref_data/run_list.xlsx
+++ b/ref_data/run_list.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishizawaosamu/work/ipynb/Melting/params/runs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishizawaosamu/work/MasterThesis/LAMBDA-Melting/ref_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD0B35C-F06D-DE40-A9F8-315CEFD6F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1957AC-3EEC-784E-B31E-D7CEDF47884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BE06A35A-6200-E441-B285-00718734DC13}"/>
+    <workbookView xWindow="30260" yWindow="1300" windowWidth="21600" windowHeight="18880" xr2:uid="{BE06A35A-6200-E441-B285-00718734DC13}"/>
   </bookViews>
   <sheets>
     <sheet name="run_year_month" sheetId="1" r:id="rId1"/>
-    <sheet name="calib_relation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>試料</t>
     <rPh sb="0" eb="2">
@@ -54,20 +53,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>年</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツキ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BDD</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -316,50 +301,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>poni</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T_calib folder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2022_0404</t>
-  </si>
-  <si>
-    <t>2022_0404</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2022_1003</t>
-  </si>
-  <si>
-    <t>2023_0408</t>
-  </si>
-  <si>
-    <t>pyFAI_calib2_2023_10_CeO2_lambda_MgS405_2_00000_202310.poni</t>
-  </si>
-  <si>
-    <t>2023_0915</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pyFAI-calib2_2023_11_CeO2_MgS400_1_00000_202311.poni</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pyFAI_calib2_2024_04_CeO2_lambda_MgS400_1_00000_202404.poni</t>
-  </si>
-  <si>
-    <t>2024_0403</t>
-  </si>
-  <si>
-    <t>pyFAI_calib2_MgS400_CeO2_240511.poni</t>
-  </si>
-  <si>
-    <t>pyFAI_calib2_MgS400_CeO2_240607.poni</t>
-  </si>
-  <si>
     <t>Fayalite</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -377,10 +318,6 @@
   </si>
   <si>
     <t>OIFY01_4th</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pyFAI-calib2_2023_07_CeO2_MgS405_1_00000_230714.poni</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -410,6 +347,14 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">サイヨウ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>month</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -417,9 +362,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -750,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,20 +750,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -838,6 +765,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,24 +799,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1219,12 +1138,12 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" style="25"/>
+    <col min="2" max="2" width="10.7109375" style="20"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="6"/>
     <col min="5" max="5" width="10.7109375" style="7"/>
@@ -1244,22 +1163,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1268,29 +1187,29 @@
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="D3" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E3" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>2023</v>
       </c>
       <c r="E4" s="7">
@@ -1298,12 +1217,12 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12">
         <v>2023</v>
       </c>
       <c r="E5" s="7">
@@ -1311,425 +1230,425 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="32"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2023</v>
-      </c>
-      <c r="E6" s="15">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="32"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D8" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E7" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="12" t="s">
+      <c r="D9" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E8" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="12" t="s">
+      <c r="D10" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E9" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="12" t="s">
+      <c r="D11" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="12" t="s">
+      <c r="D12" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="12" t="s">
+      <c r="D13" s="13">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="28"/>
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="32"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="14">
-        <v>2023</v>
-      </c>
-      <c r="E13" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34" t="s">
+      <c r="D14" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D15" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E14" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="12" t="s">
+      <c r="D16" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E15" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="12" t="s">
+      <c r="D17" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E16" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="12" t="s">
+      <c r="D18" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E17" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="12" t="s">
+      <c r="D19" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E18" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="12" t="s">
+      <c r="D20" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="12" t="s">
+      <c r="D21" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E20" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="12" t="s">
+      <c r="D22" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E21" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="12" t="s">
+      <c r="D23" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="28"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E22" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="12" t="s">
+      <c r="D24" s="13">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="28"/>
+      <c r="B25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E23" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="32"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14">
-        <v>2023</v>
-      </c>
-      <c r="E24" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="32"/>
-      <c r="B25" s="34" t="s">
+      <c r="D25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D26" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E26" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E25" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="12" t="s">
+      <c r="D27" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E27" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E26" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="12" t="s">
+      <c r="D28" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="28"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E27" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="12" t="s">
+      <c r="D29" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E28" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="12" t="s">
+      <c r="D30" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E29" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="12" t="s">
+      <c r="D31" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="28"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E30" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="12" t="s">
+      <c r="D32" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="28"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E31" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="12" t="s">
+      <c r="D33" s="13">
+        <v>2023</v>
+      </c>
+      <c r="E33" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="28"/>
+      <c r="B34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="13">
-        <v>2023</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="32"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="14">
-        <v>2023</v>
-      </c>
-      <c r="E33" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="32"/>
-      <c r="B34" s="37" t="s">
+      <c r="D34" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E34" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D35" s="13">
+        <v>2023</v>
+      </c>
+      <c r="E35" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="28"/>
+      <c r="B36" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="C36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E36" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="32"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="14">
-        <v>2023</v>
-      </c>
-      <c r="E35" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="32"/>
-      <c r="B36" s="37" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="28"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E36" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="32"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>2023</v>
       </c>
       <c r="E37" s="7">
@@ -1737,12 +1656,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="32"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="A38" s="28"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="12">
         <v>2023</v>
       </c>
       <c r="E38" s="7">
@@ -1750,12 +1669,12 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="32"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="A39" s="28"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="12">
         <v>2023</v>
       </c>
       <c r="E39" s="7">
@@ -1763,40 +1682,40 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="32"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="17" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2023</v>
+      </c>
+      <c r="E40" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="28"/>
+      <c r="B41" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="14">
-        <v>2023</v>
-      </c>
-      <c r="E40" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="32"/>
-      <c r="B41" s="37" t="s">
+      <c r="D41" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="28"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2024</v>
-      </c>
-      <c r="E41" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="32"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>2024</v>
       </c>
       <c r="E42" s="7">
@@ -1804,40 +1723,40 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="32"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E43" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="28"/>
+      <c r="B44" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="9">
         <v>2024</v>
       </c>
-      <c r="E43" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="32"/>
-      <c r="B44" s="37" t="s">
+      <c r="E44" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="28"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2024</v>
-      </c>
-      <c r="E44" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="32"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>2024</v>
       </c>
       <c r="E45" s="7">
@@ -1845,12 +1764,12 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="32"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="13">
+      <c r="A46" s="28"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="12">
         <v>2024</v>
       </c>
       <c r="E46" s="7">
@@ -1858,12 +1777,12 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="32"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="13">
+      <c r="A47" s="28"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="12">
         <v>2024</v>
       </c>
       <c r="E47" s="7">
@@ -1871,12 +1790,12 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="32"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="A48" s="28"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="12">
         <v>2024</v>
       </c>
       <c r="E48" s="7">
@@ -1884,12 +1803,12 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="32"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="13">
+      <c r="A49" s="28"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="12">
         <v>2024</v>
       </c>
       <c r="E49" s="7">
@@ -1897,40 +1816,40 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="32"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="17" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E50" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="28"/>
+      <c r="B51" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="9">
         <v>2024</v>
       </c>
-      <c r="E50" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="32"/>
-      <c r="B51" s="37" t="s">
+      <c r="E51" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="28"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2024</v>
-      </c>
-      <c r="E51" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="32"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>2024</v>
       </c>
       <c r="E52" s="7">
@@ -1938,12 +1857,12 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="32"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="13">
+      <c r="A53" s="28"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="12">
         <v>2024</v>
       </c>
       <c r="E53" s="7">
@@ -1951,42 +1870,42 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="33"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="21" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E54" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="9">
         <v>2024</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="10">
-        <v>2024</v>
-      </c>
-      <c r="E55" s="11">
-        <v>6</v>
-      </c>
-    </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="13">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="12">
         <v>2024</v>
       </c>
       <c r="E56" s="7">
@@ -1994,12 +1913,12 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="13">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="12">
         <v>2024</v>
       </c>
       <c r="E57" s="7">
@@ -2007,21 +1926,21 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="14">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="13">
         <v>2024</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2043,340 +1962,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96FADAA-B90D-1949-ABFF-A9AE225DF91A}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="22" customHeight="1"/>
-  <cols>
-    <col min="3" max="3" width="61.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1">
-      <c r="A2" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="6">
-        <v>4</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1">
-      <c r="A3" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="6">
-        <v>5</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1">
-      <c r="A4" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="6">
-        <v>6</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1">
-      <c r="A5" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="6">
-        <v>7</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1">
-      <c r="A6" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1">
-      <c r="A7" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="6">
-        <v>11</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1">
-      <c r="A8" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="6">
-        <v>12</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1">
-      <c r="A9" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1">
-      <c r="A10" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1">
-      <c r="A11" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1">
-      <c r="A12" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="6">
-        <v>6</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1">
-      <c r="A13" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1">
-      <c r="A14" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="6">
-        <v>10</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1">
-      <c r="A15" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="6">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1">
-      <c r="A16" s="23">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="6">
-        <v>12</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="22" customHeight="1">
-      <c r="A17" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="22" customHeight="1">
-      <c r="A18" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B18" s="6">
-        <v>4</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="22" customHeight="1">
-      <c r="A19" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B19" s="6">
-        <v>5</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="22" customHeight="1">
-      <c r="A20" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="22" customHeight="1">
-      <c r="A21" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B21" s="6">
-        <v>7</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="22" customHeight="1">
-      <c r="A22" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B22" s="6">
-        <v>10</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="22" customHeight="1">
-      <c r="A23" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="22" customHeight="1">
-      <c r="A24" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B24" s="6">
-        <v>12</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="22" customHeight="1">
-      <c r="A25" s="23">
-        <v>2025</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="22" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:A26">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND(ISNUMBER($A1), MOD($A1, 2) = 0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ref_data/run_list.xlsx
+++ b/ref_data/run_list.xlsx
@@ -493,7 +493,11 @@
       <c r="E3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -509,7 +513,11 @@
       <c r="E4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -525,7 +533,11 @@
       <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -541,7 +553,11 @@
       <c r="E6" t="n">
         <v>7</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -575,7 +591,11 @@
       <c r="E8" t="n">
         <v>10</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -607,7 +627,11 @@
       <c r="E10" t="n">
         <v>10</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -639,7 +663,11 @@
       <c r="E12" t="n">
         <v>10</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -655,7 +683,11 @@
       <c r="E13" t="n">
         <v>10</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
